--- a/plant_names.xlsx
+++ b/plant_names.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuli\Desktop\uni\magistrale\secondo anno\health and social challenges\FaceRecognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB7EEC-C31E-4B2A-8794-ABF5632F04D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E43E962-C416-46ED-A3D8-2198DFEE4E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Plants</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Felce</t>
+  </si>
+  <si>
+    <t>Rosa rossa</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -398,6 +401,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
